--- a/analysis/pre_gemini_data/participant330_/Sheet3.xlsx
+++ b/analysis/pre_gemini_data/participant330_/Sheet3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,222 +422,218 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condstate3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstate4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>coondstate2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>index3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>index4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index5</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index7</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>index8</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal10</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>literal5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>literal6</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>literal7</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>literal8</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>literal9</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -712,28 +696,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
@@ -751,22 +735,22 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
         <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -804,7 +788,7 @@
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>1</v>
@@ -823,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP3" t="n">
         <v>4</v>
@@ -842,28 +826,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F4" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
         <v>27</v>
@@ -881,22 +865,22 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>3</v>
@@ -934,7 +918,7 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="AI4" t="n">
         <v>2</v>
@@ -953,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP4" t="n">
         <v>5</v>
@@ -972,28 +956,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1667.59</v>
+        <v>1468.15</v>
       </c>
       <c r="C5" t="n">
-        <v>4170.96</v>
+        <v>3803.9</v>
       </c>
       <c r="D5" t="n">
         <v>2469.33</v>
       </c>
       <c r="E5" t="n">
-        <v>46600.84</v>
+        <v>44816.47</v>
       </c>
       <c r="F5" t="n">
-        <v>44815.7</v>
+        <v>43214.82</v>
       </c>
       <c r="G5" t="n">
         <v>1952.08</v>
       </c>
       <c r="H5" t="n">
-        <v>26702.71</v>
+        <v>26035.35</v>
       </c>
       <c r="I5" t="n">
-        <v>9336.26</v>
+        <v>8969.200000000001</v>
       </c>
       <c r="J5" t="n">
         <v>8618.01</v>
@@ -1011,22 +995,22 @@
         <v>2619.53</v>
       </c>
       <c r="O5" t="n">
-        <v>3912.33</v>
+        <v>3244.97</v>
       </c>
       <c r="P5" t="n">
-        <v>4170.96</v>
+        <v>3803.9</v>
       </c>
       <c r="Q5" t="n">
         <v>1635.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1667.59</v>
+        <v>1468.15</v>
       </c>
       <c r="S5" t="n">
         <v>1101.16</v>
       </c>
       <c r="T5" t="n">
-        <v>733.37</v>
+        <v>533.9400000000001</v>
       </c>
       <c r="U5" t="n">
         <v>1601.66</v>
@@ -1064,7 +1048,7 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>79539.60000000001</v>
+        <v>47907.23</v>
       </c>
       <c r="AI5" t="n">
         <v>734.11</v>
@@ -1083,7 +1067,7 @@
         <v>1351.26</v>
       </c>
       <c r="AO5" t="n">
-        <v>1451.41</v>
+        <v>784.0599999999999</v>
       </c>
       <c r="AP5" t="n">
         <v>1268</v>
@@ -1102,127 +1086,127 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.74</v>
+        <v>1.19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.85</v>
+        <v>3.09</v>
       </c>
       <c r="D6" t="n">
-        <v>1.09</v>
+        <v>2.01</v>
       </c>
       <c r="E6" t="n">
-        <v>20.64</v>
+        <v>36.43</v>
       </c>
       <c r="F6" t="n">
-        <v>19.85</v>
+        <v>35.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.86</v>
+        <v>1.59</v>
       </c>
       <c r="H6" t="n">
-        <v>11.83</v>
+        <v>21.16</v>
       </c>
       <c r="I6" t="n">
-        <v>4.14</v>
+        <v>7.29</v>
       </c>
       <c r="J6" t="n">
-        <v>3.82</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
         <v>44.33</v>
       </c>
       <c r="L6" t="n">
-        <v>0.86</v>
+        <v>1.59</v>
       </c>
       <c r="M6" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="N6" t="n">
-        <v>1.16</v>
+        <v>2.13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>2.64</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>3.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>0.74</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="T6" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="U6" t="n">
-        <v>0.71</v>
+        <v>1.3</v>
       </c>
       <c r="V6" t="n">
-        <v>6.07</v>
+        <v>11.13</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>0.53</v>
+        <v>0.98</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.79</v>
+        <v>3.28</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.77</v>
+        <v>6.92</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.91</v>
+        <v>3.51</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.98</v>
+        <v>1.8</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>35.24</v>
+        <v>38.94</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.52</v>
+        <v>0.96</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AO6" t="n">
         <v>0.64</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.47</v>
+        <v>0.85</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
@@ -1232,28 +1216,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.86</v>
+        <v>734.08</v>
       </c>
       <c r="C7" t="n">
-        <v>245.35</v>
+        <v>237.74</v>
       </c>
       <c r="D7" t="n">
         <v>308.67</v>
       </c>
       <c r="E7" t="n">
-        <v>274.12</v>
+        <v>271.61</v>
       </c>
       <c r="F7" t="n">
-        <v>271.61</v>
+        <v>268.42</v>
       </c>
       <c r="G7" t="n">
         <v>278.87</v>
       </c>
       <c r="H7" t="n">
-        <v>306.93</v>
+        <v>302.74</v>
       </c>
       <c r="I7" t="n">
-        <v>301.17</v>
+        <v>298.97</v>
       </c>
       <c r="J7" t="n">
         <v>319.19</v>
@@ -1271,22 +1255,22 @@
         <v>291.06</v>
       </c>
       <c r="O7" t="n">
-        <v>355.67</v>
+        <v>324.5</v>
       </c>
       <c r="P7" t="n">
-        <v>245.35</v>
+        <v>237.74</v>
       </c>
       <c r="Q7" t="n">
         <v>408.79</v>
       </c>
       <c r="R7" t="n">
-        <v>555.86</v>
+        <v>734.08</v>
       </c>
       <c r="S7" t="n">
         <v>275.29</v>
       </c>
       <c r="T7" t="n">
-        <v>244.46</v>
+        <v>266.97</v>
       </c>
       <c r="U7" t="n">
         <v>533.89</v>
@@ -1324,7 +1308,7 @@
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>380.57</v>
+        <v>395.93</v>
       </c>
       <c r="AI7" t="n">
         <v>367.06</v>
@@ -1343,7 +1327,7 @@
         <v>337.82</v>
       </c>
       <c r="AO7" t="n">
-        <v>362.85</v>
+        <v>261.35</v>
       </c>
       <c r="AP7" t="n">
         <v>253.6</v>
@@ -1484,144 +1468,6 @@
       <c r="AR8" t="n">
         <v>500.56</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
